--- a/pred_ohlcv/54_21/2020-01-22 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 BTT ohlcv.xlsx
@@ -2368,7 +2368,7 @@
         <v>-32372704.67220427</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-32371486.02420427</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-32871486.02420427</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-32903486.02420427</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-30391639.73840427</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-39262223.60677557</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-39264010.46977557</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-39264010.46977557</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-39264010.46977557</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-26732656.43530428</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-28836377.43520428</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-28835158.27120428</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-29002706.61753299</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-29314035.90963299</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-29079726.23535006</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-28954131.56005006</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-28754146.79125006</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-33430672.63105007</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-27000105.44735439</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-34433153.29631498</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-34433153.29631498</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-34409691.87217747</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-34409691.87217747</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-34409691.87217747</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-34385825.52372839</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-34388259.89132839</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-34387067.89132839</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-32819726.47792839</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-33005514.73682839</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-24415567.28402839</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-24370409.06372839</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-25890409.06372839</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-22 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 BTT ohlcv.xlsx
@@ -2784,7 +2784,7 @@
         <v>-39285094.65300428</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-39262223.60677557</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-39264010.46977557</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-31983019.40880428</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-26732656.43530428</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-26831354.43530428</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-26828055.43530428</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-28836377.43520428</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-28836377.43520428</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-28836377.43520428</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-28835158.27120428</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-28835158.27123299</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-29002706.61753299</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-29314035.90963299</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-29079726.23535006</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-29079726.23535006</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-28984131.56005006</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-28954131.56005006</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-29237785.23445006</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-33407146.79125006</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-33430672.63105007</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-26535734.80485006</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-26670178.03945006</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-26668966.70135006</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-26687066.26015006</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-27287066.26015006</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-34433153.29631498</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-34433153.29631498</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-34409691.87217747</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-34409691.87217747</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-34409691.87217747</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-34385825.52372839</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-34388259.89132839</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-34387067.89132839</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-34385876.89132839</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-32494115.81642839</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-32819726.47792839</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-33005514.73682839</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-24415567.28402839</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-24367982.22572839</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-24370409.06372839</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-24370409.06372839</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-24290409.06372839</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-25890409.06372839</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
